--- a/www/IndicatorsPerCountry/Mali_GDPperCapita_TerritorialRef_1960_2012_CCode_466.xlsx
+++ b/www/IndicatorsPerCountry/Mali_GDPperCapita_TerritorialRef_1960_2012_CCode_466.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mali_GDPperCapita_TerritorialRef_1960_2012_CCode_466.xlsx
+++ b/www/IndicatorsPerCountry/Mali_GDPperCapita_TerritorialRef_1960_2012_CCode_466.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>609</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>616</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>844</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>697</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>756</t>
-  </si>
-  <si>
-    <t>747.0966513</t>
-  </si>
-  <si>
-    <t>797.222255843</t>
-  </si>
-  <si>
-    <t>751.51750257</t>
-  </si>
-  <si>
-    <t>762.423460424</t>
-  </si>
-  <si>
-    <t>770.993448406</t>
-  </si>
-  <si>
-    <t>776.11786729</t>
-  </si>
-  <si>
-    <t>818.188038867</t>
-  </si>
-  <si>
-    <t>839.273342677</t>
-  </si>
-  <si>
-    <t>854.521039881</t>
-  </si>
-  <si>
-    <t>877.570407187</t>
-  </si>
-  <si>
-    <t>824.305033188</t>
-  </si>
-  <si>
-    <t>895.149343975</t>
-  </si>
-  <si>
-    <t>906.3437404</t>
-  </si>
-  <si>
-    <t>946.640784096</t>
-  </si>
-  <si>
-    <t>939.361904268</t>
-  </si>
-  <si>
-    <t>967.302187452</t>
-  </si>
-  <si>
-    <t>987.730600007</t>
-  </si>
-  <si>
-    <t>999.477065002</t>
-  </si>
-  <si>
-    <t>1017.90774104</t>
-  </si>
-  <si>
-    <t>1031.31658811</t>
-  </si>
-  <si>
-    <t>1058.5092024</t>
+    <t>728</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>791</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>816</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>881</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>1090</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>1186.75768210614</t>
+  </si>
+  <si>
+    <t>1115.40597097193</t>
+  </si>
+  <si>
+    <t>1115.10017260117</t>
+  </si>
+  <si>
+    <t>1111.78536659544</t>
+  </si>
+  <si>
+    <t>1100.2432497145</t>
+  </si>
+  <si>
+    <t>1130.50966495942</t>
+  </si>
+  <si>
+    <t>1160.95166520433</t>
+  </si>
+  <si>
+    <t>1167.43257807046</t>
+  </si>
+  <si>
+    <t>1192.31681889464</t>
+  </si>
+  <si>
+    <t>1153.04614535542</t>
+  </si>
+  <si>
+    <t>1309.25583970687</t>
+  </si>
+  <si>
+    <t>1321.33882657338</t>
+  </si>
+  <si>
+    <t>1391.26347128294</t>
+  </si>
+  <si>
+    <t>1366.98306657794</t>
+  </si>
+  <si>
+    <t>1414.79273856253</t>
+  </si>
+  <si>
+    <t>1438.20793270406</t>
+  </si>
+  <si>
+    <t>1441.20593670952</t>
+  </si>
+  <si>
+    <t>1460.49598003884</t>
+  </si>
+  <si>
+    <t>1477.41837438766</t>
+  </si>
+  <si>
+    <t>1504.99561226943</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1448</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>1594</t>
   </si>
   <si>
     <t>Description</t>
@@ -1351,6 +1369,108 @@
         <v>65</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1366,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
